--- a/向思思/海易通项目要地址合集.xlsx
+++ b/向思思/海易通项目要地址合集.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C186C7-40AC-49D6-B467-DCE7414EE19F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF580B-ECFB-4A8F-8C1D-F3D369F3D922}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="结算" sheetId="1" r:id="rId1"/>
-    <sheet name="飞鱼小程序" sheetId="2" r:id="rId2"/>
-    <sheet name="货盘管家" sheetId="3" r:id="rId3"/>
-    <sheet name="货主管理平台" sheetId="4" r:id="rId4"/>
-    <sheet name="数据管理平台" sheetId="5" r:id="rId5"/>
-    <sheet name="资产包" sheetId="13" r:id="rId6"/>
-    <sheet name="飞鱼航运圈" sheetId="6" r:id="rId7"/>
-    <sheet name="海运结算" sheetId="11" r:id="rId8"/>
-    <sheet name="海易通船舶查询平台" sheetId="7" r:id="rId9"/>
-    <sheet name="河南海事局" sheetId="8" r:id="rId10"/>
-    <sheet name="海易通航运交易中心" sheetId="10" r:id="rId11"/>
+    <sheet name="1结算" sheetId="1" r:id="rId1"/>
+    <sheet name="2飞鱼小程序" sheetId="2" r:id="rId2"/>
+    <sheet name="3货主管理平台" sheetId="4" r:id="rId3"/>
+    <sheet name="4货盘管家" sheetId="3" r:id="rId4"/>
+    <sheet name="5数据管理平台" sheetId="5" r:id="rId5"/>
+    <sheet name="6资产包" sheetId="13" r:id="rId6"/>
+    <sheet name="7飞鱼航运圈" sheetId="6" r:id="rId7"/>
+    <sheet name="8海运结算" sheetId="11" r:id="rId8"/>
+    <sheet name="9海易通船舶查询平台" sheetId="7" r:id="rId9"/>
+    <sheet name="10河南海事局" sheetId="8" r:id="rId10"/>
+    <sheet name="11海易通航运交易中心" sheetId="10" r:id="rId11"/>
     <sheet name="禅道" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,15 +41,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://47.100.54.97:8080/sea_settle2/swagger-ui.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,11 +236,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://test.zcb.haietong.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-fy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库-fy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库;sea-settle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://data.haietong.cn/api_order/swagger-ui.html#/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://test.zcb.haietong.cn</t>
+    <t>http://47.103.83.177/sea_settle2/order/orderListAssets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,15 +280,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库-fy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库-fy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库;sea-settle</t>
+    <t>货代使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货主使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算员工用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test2.haietong.cn/sea_settle2/swagger-ui.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhiku.haietong.cn/#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.haietong.cn/data_manage_center/swagger-ui.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +663,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +673,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -642,20 +686,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,24 +707,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{8C64ED1E-4543-41A8-936F-7EBD8DB68D69}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{6C155859-57D4-4914-9BE6-E468A713CA25}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{EFC9E67E-8E22-4394-860B-68389132F25A}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{FCF5D5E8-4FC8-4B7A-82CF-7225AD8763C2}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{6C155859-57D4-4914-9BE6-E468A713CA25}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{EFC9E67E-8E22-4394-860B-68389132F25A}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{FCF5D5E8-4FC8-4B7A-82CF-7225AD8763C2}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{C74763DD-CD47-4A5E-B165-66E7317FF78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -688,10 +732,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1790EE-D336-4141-9E36-CF51F7105F28}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,17 +747,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -721,23 +765,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J18" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -753,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EF65A-65C8-46C1-9DA0-144340F56850}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,19 +804,19 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,28 +824,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -822,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86396109-88BF-4D24-BF9A-A69C42BE9F14}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -834,15 +873,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +898,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -869,7 +908,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -890,12 +929,12 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -903,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -911,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -925,11 +964,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8574C16-9DF9-4A43-A4CF-67F7DF62FE7E}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="48.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{199AB3CC-5F0E-4F70-BC9A-BAD027F035B3}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{42235A98-276A-4D2B-BA0F-E790FE738F69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F339F-8BFC-4C34-BB26-0875E4791D4E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,8 +1050,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -952,20 +1067,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -973,15 +1088,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -994,22 +1109,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8574C16-9DF9-4A43-A4CF-67F7DF62FE7E}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78A0ACD-DCBE-4D5D-BE21-B564357359F4}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="48.75" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1021,108 +1140,56 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{199AB3CC-5F0E-4F70-BC9A-BAD027F035B3}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{42235A98-276A-4D2B-BA0F-E790FE738F69}"/>
+    <hyperlink ref="B4" r:id="rId1" location="/" xr:uid="{AE388C40-E5C4-4B54-96A2-7C1102BAFEA0}"/>
+    <hyperlink ref="B7" r:id="rId2" location="/" xr:uid="{D1CAE976-09D0-4023-A394-0410B0A59DBF}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{DF271FA1-01C2-4CE8-AAA2-10FB4C1CC04B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78A0ACD-DCBE-4D5D-BE21-B564357359F4}">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBAF699-0585-4A5D-89B6-24A847B24839}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="/" xr:uid="{AE388C40-E5C4-4B54-96A2-7C1102BAFEA0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBAF699-0585-4A5D-89B6-24A847B24839}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1131,26 +1198,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
+      <c r="A1" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="/" xr:uid="{7C2637C9-1BE8-43C9-A8F4-EB2CFF55E36A}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{A9D5D6B1-8A47-48CD-A01D-36A7FD90ACCB}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{A9D5D6B1-8A47-48CD-A01D-36A7FD90ACCB}"/>
+    <hyperlink ref="B5" r:id="rId2" location="/" xr:uid="{273107B4-34C3-446B-A989-E2501A5D0C8B}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{ABF91952-7505-4B0F-9F57-3584B189F4B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1160,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B83997-B745-4BF1-BB47-C01958A399A6}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1172,12 +1264,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,26 +1277,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1314,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,17 +1325,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,15 +1343,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1290,12 +1382,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1303,18 +1395,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
